--- a/data/trans_orig/rlab_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66DC235D-B448-44A3-8F21-F0444E3612E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32802B60-D768-4722-8027-1F77D1FC30AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF4D966E-0977-43E4-98AA-193DC656C30D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F82DD8FC-A316-4D25-BBAA-E77AD8201AAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="309">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>73,14%</t>
   </si>
   <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>91,6%</t>
   </si>
   <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>80,59%</t>
   </si>
   <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>18,16%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>5,99%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -152,10 +152,10 @@
     <t>3,57%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,19 +164,19 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,787 +191,775 @@
     <t>66,34%</t>
   </si>
   <si>
-    <t>78,03%</t>
+    <t>77,77%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>77,4%</t>
   </si>
   <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>5,42%</t>
+    <t>5,3%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>2,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1386,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F91E30-51EE-475B-BC0C-B2C982564CB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1504BF82-A9DF-4CCD-8AD6-24DDCEDE4FEB}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2299,10 +2287,10 @@
         <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>277</v>
@@ -2311,13 +2299,13 @@
         <v>278892</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2320,13 @@
         <v>40773</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -2347,13 +2335,13 @@
         <v>10751</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -2362,13 +2350,13 @@
         <v>51524</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2371,13 @@
         <v>18135</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2398,13 +2386,13 @@
         <v>4043</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -2413,13 +2401,13 @@
         <v>22178</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,7 +2422,7 @@
         <v>3772</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>143</v>
@@ -2455,7 +2443,7 @@
         <v>34</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2727,7 +2715,7 @@
         <v>175</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>176</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2771,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2795,13 +2783,13 @@
         <v>117761</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
@@ -2810,13 +2798,13 @@
         <v>76648</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>188</v>
@@ -2825,13 +2813,13 @@
         <v>194409</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2834,13 @@
         <v>19900</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2861,13 +2849,13 @@
         <v>4106</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -2876,13 +2864,13 @@
         <v>24005</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2885,13 @@
         <v>14351</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2912,13 +2900,13 @@
         <v>2063</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -2927,10 +2915,10 @@
         <v>16414</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>202</v>
@@ -3160,7 +3148,7 @@
         <v>230</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -3169,10 +3157,10 @@
         <v>4143</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>233</v>
@@ -3205,13 +3193,13 @@
         <v>13446</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -3220,13 +3208,13 @@
         <v>3414</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -3235,13 +3223,13 @@
         <v>16860</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,7 +3285,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3309,13 +3297,13 @@
         <v>332193</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H39" s="7">
         <v>182</v>
@@ -3324,13 +3312,13 @@
         <v>191031</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M39" s="7">
         <v>502</v>
@@ -3339,13 +3327,13 @@
         <v>523223</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3348,13 @@
         <v>90295</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H40" s="7">
         <v>24</v>
@@ -3375,13 +3363,13 @@
         <v>24940</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="M40" s="7">
         <v>109</v>
@@ -3390,13 +3378,13 @@
         <v>115235</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3399,13 @@
         <v>34565</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H41" s="7">
         <v>13</v>
@@ -3426,13 +3414,13 @@
         <v>14020</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M41" s="7">
         <v>51</v>
@@ -3441,13 +3429,13 @@
         <v>48585</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>266</v>
+        <v>138</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>268</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,10 +3468,10 @@
         <v>272</v>
       </c>
       <c r="K42" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M42" s="7">
         <v>19</v>
@@ -3492,13 +3480,13 @@
         <v>18163</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P42" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q42" s="7" t="s">
-        <v>276</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3554,13 @@
         <v>1408996</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H44" s="7">
         <v>836</v>
@@ -3581,13 +3569,13 @@
         <v>871937</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M44" s="7">
         <v>2182</v>
@@ -3596,13 +3584,13 @@
         <v>2280933</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3605,13 @@
         <v>314662</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H45" s="7">
         <v>96</v>
@@ -3632,13 +3620,13 @@
         <v>101450</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M45" s="7">
         <v>395</v>
@@ -3647,13 +3635,13 @@
         <v>416112</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3656,13 @@
         <v>129296</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H46" s="7">
         <v>33</v>
@@ -3683,13 +3671,13 @@
         <v>35251</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M46" s="7">
         <v>162</v>
@@ -3698,13 +3686,13 @@
         <v>164547</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,10 +3707,10 @@
         <v>52460</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>271</v>
@@ -3734,13 +3722,13 @@
         <v>14587</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="M47" s="7">
         <v>64</v>
@@ -3749,13 +3737,13 @@
         <v>67047</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,7 +3799,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/rlab_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32802B60-D768-4722-8027-1F77D1FC30AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B941D39A-A473-406D-90D9-ADD418BC064E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F82DD8FC-A316-4D25-BBAA-E77AD8201AAF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{89A8AAEA-5C24-4110-925A-7753953D0F67}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="315">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>73,14%</t>
   </si>
   <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>91,6%</t>
   </si>
   <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>80,59%</t>
   </si>
   <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,862 +104,880 @@
     <t>18,16%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,79%</t>
+    <t>0,82%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>2,89%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1374,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1504BF82-A9DF-4CCD-8AD6-24DDCEDE4FEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6B9DC8-21B2-42C9-AF9A-45B54AB1395E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2287,10 +2305,10 @@
         <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>277</v>
@@ -2299,13 +2317,13 @@
         <v>278892</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2338,13 @@
         <v>40773</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -2335,13 +2353,13 @@
         <v>10751</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -2401,13 +2419,13 @@
         <v>22178</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2440,13 @@
         <v>3772</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2443,7 +2461,7 @@
         <v>34</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2452,13 +2470,13 @@
         <v>5893</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,7 +2532,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2526,13 +2544,13 @@
         <v>88662</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>44</v>
@@ -2541,13 +2559,13 @@
         <v>47436</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>131</v>
@@ -2556,13 +2574,13 @@
         <v>136099</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,10 +2598,10 @@
         <v>64</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2592,13 +2610,13 @@
         <v>1989</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -2607,13 +2625,13 @@
         <v>20121</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,10 +2649,10 @@
         <v>72</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2649,7 +2667,7 @@
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2658,13 +2676,13 @@
         <v>3565</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,7 +2703,7 @@
         <v>34</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2694,13 +2712,13 @@
         <v>1000</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -2709,13 +2727,13 @@
         <v>2818</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,7 +2789,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2783,13 +2801,13 @@
         <v>117761</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
@@ -2798,13 +2816,13 @@
         <v>76648</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>188</v>
@@ -2813,13 +2831,13 @@
         <v>194409</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,13 +2852,13 @@
         <v>19900</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2849,13 +2867,13 @@
         <v>4106</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -2864,13 +2882,13 @@
         <v>24005</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2903,13 @@
         <v>14351</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2900,13 +2918,13 @@
         <v>2063</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -2915,13 +2933,13 @@
         <v>16414</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2954,13 @@
         <v>4006</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2957,7 +2975,7 @@
         <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -2966,13 +2984,13 @@
         <v>4006</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,7 +3046,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3040,13 +3058,13 @@
         <v>254177</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H34" s="7">
         <v>145</v>
@@ -3055,13 +3073,13 @@
         <v>152876</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M34" s="7">
         <v>385</v>
@@ -3070,13 +3088,13 @@
         <v>407053</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3109,13 @@
         <v>44972</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H35" s="7">
         <v>16</v>
@@ -3106,13 +3124,13 @@
         <v>19183</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M35" s="7">
         <v>59</v>
@@ -3121,13 +3139,13 @@
         <v>64155</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3160,13 @@
         <v>22333</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -3157,13 +3175,13 @@
         <v>4143</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M36" s="7">
         <v>24</v>
@@ -3172,13 +3190,13 @@
         <v>26476</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3211,13 @@
         <v>13446</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -3208,13 +3226,13 @@
         <v>3414</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -3223,13 +3241,13 @@
         <v>16860</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,7 +3303,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3297,13 +3315,13 @@
         <v>332193</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H39" s="7">
         <v>182</v>
@@ -3312,13 +3330,13 @@
         <v>191031</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M39" s="7">
         <v>502</v>
@@ -3327,13 +3345,13 @@
         <v>523223</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3366,13 @@
         <v>90295</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H40" s="7">
         <v>24</v>
@@ -3363,13 +3381,13 @@
         <v>24940</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M40" s="7">
         <v>109</v>
@@ -3429,13 +3447,13 @@
         <v>48585</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>101</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3468,13 @@
         <v>10112</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="H42" s="7">
         <v>8</v>
@@ -3465,13 +3483,13 @@
         <v>8051</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M42" s="7">
         <v>19</v>
@@ -3480,13 +3498,13 @@
         <v>18163</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>140</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3572,13 @@
         <v>1408996</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H44" s="7">
         <v>836</v>
@@ -3569,13 +3587,13 @@
         <v>871937</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M44" s="7">
         <v>2182</v>
@@ -3584,13 +3602,13 @@
         <v>2280933</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3623,13 @@
         <v>314662</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H45" s="7">
         <v>96</v>
@@ -3620,13 +3638,13 @@
         <v>101450</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M45" s="7">
         <v>395</v>
@@ -3635,13 +3653,13 @@
         <v>416112</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3674,13 @@
         <v>129296</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H46" s="7">
         <v>33</v>
@@ -3671,13 +3689,13 @@
         <v>35251</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M46" s="7">
         <v>162</v>
@@ -3686,13 +3704,13 @@
         <v>164547</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3725,13 @@
         <v>52460</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="H47" s="7">
         <v>14</v>
@@ -3722,13 +3740,13 @@
         <v>14587</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="M47" s="7">
         <v>64</v>
@@ -3737,13 +3755,13 @@
         <v>67047</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,7 +3817,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/rlab_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B941D39A-A473-406D-90D9-ADD418BC064E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0EF7895-49CA-41F9-B5F3-599AF8839F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{89A8AAEA-5C24-4110-925A-7753953D0F67}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA9FA2F2-AC85-4269-8C10-1C9ADC803D09}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="313">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>73,14%</t>
   </si>
   <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
   </si>
   <si>
     <t>91,6%</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>80,59%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>18,16%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>5,99%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -152,832 +152,826 @@
     <t>3,57%</t>
   </si>
   <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
     <t>1,69%</t>
   </si>
   <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>16,32%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,63%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1392,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6B9DC8-21B2-42C9-AF9A-45B54AB1395E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0754D9EE-D6C7-4340-BD75-0C796D0AE282}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2359,7 +2353,7 @@
         <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -2368,13 +2362,13 @@
         <v>51524</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2383,13 @@
         <v>18135</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2404,13 +2398,13 @@
         <v>4043</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -2419,13 +2413,13 @@
         <v>22178</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2434,13 @@
         <v>3772</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2461,7 +2455,7 @@
         <v>34</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2470,13 +2464,13 @@
         <v>5893</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,7 +2526,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2544,13 +2538,13 @@
         <v>88662</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>44</v>
@@ -2559,13 +2553,13 @@
         <v>47436</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>131</v>
@@ -2574,13 +2568,13 @@
         <v>136099</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,10 +2592,10 @@
         <v>64</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2610,13 +2604,13 @@
         <v>1989</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -2625,13 +2619,13 @@
         <v>20121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,10 +2643,10 @@
         <v>72</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2667,7 +2661,7 @@
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2676,13 +2670,13 @@
         <v>3565</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,7 +2697,7 @@
         <v>34</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2712,13 +2706,13 @@
         <v>1000</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -2727,13 +2721,13 @@
         <v>2818</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,7 +2783,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2801,13 +2795,13 @@
         <v>117761</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
@@ -2816,13 +2810,13 @@
         <v>76648</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>188</v>
@@ -2831,13 +2825,13 @@
         <v>194409</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2846,13 @@
         <v>19900</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2867,13 +2861,13 @@
         <v>4106</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -2882,13 +2876,13 @@
         <v>24005</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2897,13 @@
         <v>14351</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2918,13 +2912,13 @@
         <v>2063</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -2933,13 +2927,13 @@
         <v>16414</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2948,13 @@
         <v>4006</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2975,7 +2969,7 @@
         <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -2984,13 +2978,13 @@
         <v>4006</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,7 +3040,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3058,13 +3052,13 @@
         <v>254177</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H34" s="7">
         <v>145</v>
@@ -3073,13 +3067,13 @@
         <v>152876</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M34" s="7">
         <v>385</v>
@@ -3088,13 +3082,13 @@
         <v>407053</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3103,13 @@
         <v>44972</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H35" s="7">
         <v>16</v>
@@ -3124,13 +3118,13 @@
         <v>19183</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M35" s="7">
         <v>59</v>
@@ -3139,13 +3133,13 @@
         <v>64155</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3154,13 @@
         <v>22333</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -3175,13 +3169,13 @@
         <v>4143</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M36" s="7">
         <v>24</v>
@@ -3190,13 +3184,13 @@
         <v>26476</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,7 +3205,7 @@
         <v>13446</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>237</v>
@@ -3226,13 +3220,13 @@
         <v>3414</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -3241,13 +3235,13 @@
         <v>16860</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3297,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3315,13 +3309,13 @@
         <v>332193</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H39" s="7">
         <v>182</v>
@@ -3330,13 +3324,13 @@
         <v>191031</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M39" s="7">
         <v>502</v>
@@ -3345,13 +3339,13 @@
         <v>523223</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3360,13 @@
         <v>90295</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H40" s="7">
         <v>24</v>
@@ -3381,13 +3375,13 @@
         <v>24940</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M40" s="7">
         <v>109</v>
@@ -3396,13 +3390,13 @@
         <v>115235</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3411,13 @@
         <v>34565</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H41" s="7">
         <v>13</v>
@@ -3432,13 +3426,13 @@
         <v>14020</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M41" s="7">
         <v>51</v>
@@ -3447,13 +3441,13 @@
         <v>48585</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3462,13 @@
         <v>10112</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="H42" s="7">
         <v>8</v>
@@ -3483,13 +3477,13 @@
         <v>8051</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M42" s="7">
         <v>19</v>
@@ -3498,13 +3492,13 @@
         <v>18163</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3566,13 @@
         <v>1408996</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H44" s="7">
         <v>836</v>
@@ -3587,13 +3581,13 @@
         <v>871937</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M44" s="7">
         <v>2182</v>
@@ -3602,13 +3596,13 @@
         <v>2280933</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3617,13 @@
         <v>314662</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H45" s="7">
         <v>96</v>
@@ -3638,13 +3632,13 @@
         <v>101450</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M45" s="7">
         <v>395</v>
@@ -3653,13 +3647,13 @@
         <v>416112</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3668,13 @@
         <v>129296</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H46" s="7">
         <v>33</v>
@@ -3689,13 +3683,13 @@
         <v>35251</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M46" s="7">
         <v>162</v>
@@ -3704,13 +3698,13 @@
         <v>164547</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3719,13 @@
         <v>52460</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="H47" s="7">
         <v>14</v>
@@ -3740,13 +3734,13 @@
         <v>14587</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="M47" s="7">
         <v>64</v>
@@ -3755,13 +3749,13 @@
         <v>67047</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3811,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/rlab_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0EF7895-49CA-41F9-B5F3-599AF8839F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DF7C072-7F91-420D-868E-7402FF7FA899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA9FA2F2-AC85-4269-8C10-1C9ADC803D09}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A8ECEDA3-2080-427B-84D1-ECB72D464682}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1386,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0754D9EE-D6C7-4340-BD75-0C796D0AE282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263082EB-1B65-4743-879E-E38F2746E9DC}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
